--- a/biology/Médecine/Dyskinésie/Dyskinésie.xlsx
+++ b/biology/Médecine/Dyskinésie/Dyskinésie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dyskin%C3%A9sie</t>
+          <t>Dyskinésie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, une dyskinésie est un mouvement anormal. 
-En neurologie[1], il s'agit d'une activité motrice involontaire, lente et stéréotypée affectant préférentiellement la face (langue, lèvres, mâchoire) s’étendant au tronc et aux membres, comme le tremblement, la chorée, la dystonie, les myoclonies, l'astérixis, les tics. Apparaissant ou s’accentuant à l'occasion d'un mouvement volontaire ; incessante au cours de l’éveil et s’arrêtant lors du sommeil. La dyskinésie est un effet secondaire de certains médicaments (L-DOPA ou neuroleptiques).
+En neurologie, il s'agit d'une activité motrice involontaire, lente et stéréotypée affectant préférentiellement la face (langue, lèvres, mâchoire) s’étendant au tronc et aux membres, comme le tremblement, la chorée, la dystonie, les myoclonies, l'astérixis, les tics. Apparaissant ou s’accentuant à l'occasion d'un mouvement volontaire ; incessante au cours de l’éveil et s’arrêtant lors du sommeil. La dyskinésie est un effet secondaire de certains médicaments (L-DOPA ou neuroleptiques).
 En cardiologie, une dyskinésie est un mouvement anormal d'une paroi cardiaque, le plus souvent ventriculaire.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dyskin%C3%A9sie</t>
+          <t>Dyskinésie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Sémiologie neurologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les localisations sont :
 bucco-faciales :
@@ -525,7 +539,7 @@
 tronc et bassin : oscillations avec projection en avant,
 membres : mouvements choréiformes ou athétosiques.
 L’ensemble conduisant à une akathisie, c'est-à-dire une impossibilité de rester immobile, en particulier touchant les membres inférieurs.
-Le café pourrait réduire les symptômes de la dyskinésie[2].
+Le café pourrait réduire les symptômes de la dyskinésie.
 </t>
         </is>
       </c>
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dyskin%C3%A9sie</t>
+          <t>Dyskinésie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>En cardiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une dyskinésie est un mouvement anormal d'une paroi cardiaque, le plus souvent ventriculaire.
 Habituellement le muscle cardiaque des ventricules se contracte en systole : il s'épaissit et tend à se rapprocher du centre de la cavité. Il est dit alors normokinétique. Si cette contraction est diminuée, on parle d' hypokinésie, si elle est abolie, d' akinésie. Si la paroi ventriculaire s'éloigne du centre de la cavité en systole, on parle alors de dyskinésie.
